--- a/questionário para avaliadores final.xlsx
+++ b/questionário para avaliadores final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cesar_macieira\Desktop\Usiminas\Nescon\qualidade-telessaude\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AFD3C2-8C8B-4749-A002-21DB75D335DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAEFF4F5-4BE8-42B4-B807-4D6EA8875704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Avaliadores" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Planilha1!$C$1:$C$125</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Planilha1 (2)'!$C$1:$C$125</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Planilha1 (2)'!$A$1:$C$125</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="110">
   <si>
     <t>Relevância</t>
   </si>
@@ -931,6 +931,9 @@
   <si>
     <t>Gestão de Tecnologia</t>
   </si>
+  <si>
+    <t>CVR</t>
+  </si>
 </sst>
 </file>
 
@@ -1058,7 +1061,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1103,11 +1106,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1199,29 +1213,17 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1232,20 +1234,35 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1605,12 +1622,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:11" ht="178.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
     </row>
     <row r="3" spans="3:11" s="2" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="9" t="s">
@@ -1642,10 +1659,10 @@
       </c>
     </row>
     <row r="4" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="31">
-        <v>1</v>
-      </c>
-      <c r="D4" s="32" t="s">
+      <c r="C4" s="32">
+        <v>1</v>
+      </c>
+      <c r="D4" s="41" t="s">
         <v>56</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -1671,8 +1688,8 @@
       </c>
     </row>
     <row r="5" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="31"/>
-      <c r="D5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="41"/>
       <c r="E5" s="4" t="s">
         <v>1</v>
       </c>
@@ -1696,7 +1713,7 @@
       </c>
     </row>
     <row r="6" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="31">
+      <c r="C6" s="32">
         <v>2</v>
       </c>
       <c r="D6" s="33" t="s">
@@ -1725,7 +1742,7 @@
       </c>
     </row>
     <row r="7" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="31"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="33"/>
       <c r="E7" s="4" t="s">
         <v>1</v>
@@ -1750,10 +1767,10 @@
       </c>
     </row>
     <row r="8" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="31">
-        <v>3</v>
-      </c>
-      <c r="D8" s="32" t="s">
+      <c r="C8" s="32">
+        <v>3</v>
+      </c>
+      <c r="D8" s="41" t="s">
         <v>57</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -1779,8 +1796,8 @@
       </c>
     </row>
     <row r="9" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="41"/>
       <c r="E9" s="4" t="s">
         <v>1</v>
       </c>
@@ -1804,7 +1821,7 @@
       </c>
     </row>
     <row r="10" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="31">
+      <c r="C10" s="32">
         <v>4</v>
       </c>
       <c r="D10" s="33" t="s">
@@ -1833,7 +1850,7 @@
       </c>
     </row>
     <row r="11" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="31"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="33"/>
       <c r="E11" s="4" t="s">
         <v>1</v>
@@ -1858,7 +1875,7 @@
       </c>
     </row>
     <row r="12" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="31">
+      <c r="C12" s="32">
         <v>5</v>
       </c>
       <c r="D12" s="33" t="s">
@@ -1887,7 +1904,7 @@
       </c>
     </row>
     <row r="13" spans="3:11" ht="41.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="31"/>
+      <c r="C13" s="32"/>
       <c r="D13" s="33"/>
       <c r="E13" s="4" t="s">
         <v>1</v>
@@ -1912,7 +1929,7 @@
       </c>
     </row>
     <row r="14" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="31">
+      <c r="C14" s="32">
         <v>6</v>
       </c>
       <c r="D14" s="33" t="s">
@@ -1941,7 +1958,7 @@
       </c>
     </row>
     <row r="15" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="31"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="33"/>
       <c r="E15" s="4" t="s">
         <v>1</v>
@@ -1966,7 +1983,7 @@
       </c>
     </row>
     <row r="16" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="31">
+      <c r="C16" s="32">
         <v>7</v>
       </c>
       <c r="D16" s="33" t="s">
@@ -1995,7 +2012,7 @@
       </c>
     </row>
     <row r="17" spans="3:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="31"/>
+      <c r="C17" s="32"/>
       <c r="D17" s="33"/>
       <c r="E17" s="4" t="s">
         <v>1</v>
@@ -2020,7 +2037,7 @@
       </c>
     </row>
     <row r="18" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="31">
+      <c r="C18" s="32">
         <v>8</v>
       </c>
       <c r="D18" s="33" t="s">
@@ -2049,7 +2066,7 @@
       </c>
     </row>
     <row r="19" spans="3:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="31"/>
+      <c r="C19" s="32"/>
       <c r="D19" s="33"/>
       <c r="E19" s="4" t="s">
         <v>1</v>
@@ -2074,7 +2091,7 @@
       </c>
     </row>
     <row r="20" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="31">
+      <c r="C20" s="32">
         <v>9</v>
       </c>
       <c r="D20" s="33" t="s">
@@ -2103,7 +2120,7 @@
       </c>
     </row>
     <row r="21" spans="3:11" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="31"/>
+      <c r="C21" s="32"/>
       <c r="D21" s="33"/>
       <c r="E21" s="4" t="s">
         <v>1</v>
@@ -2128,7 +2145,7 @@
       </c>
     </row>
     <row r="22" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="31">
+      <c r="C22" s="32">
         <v>10</v>
       </c>
       <c r="D22" s="33" t="s">
@@ -2157,7 +2174,7 @@
       </c>
     </row>
     <row r="23" spans="3:11" ht="51.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="31"/>
+      <c r="C23" s="32"/>
       <c r="D23" s="33"/>
       <c r="E23" s="4" t="s">
         <v>1</v>
@@ -2182,7 +2199,7 @@
       </c>
     </row>
     <row r="24" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="31">
+      <c r="C24" s="32">
         <v>11</v>
       </c>
       <c r="D24" s="33" t="s">
@@ -2211,7 +2228,7 @@
       </c>
     </row>
     <row r="25" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="31"/>
+      <c r="C25" s="32"/>
       <c r="D25" s="33"/>
       <c r="E25" s="4" t="s">
         <v>1</v>
@@ -2236,7 +2253,7 @@
       </c>
     </row>
     <row r="26" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="31">
+      <c r="C26" s="32">
         <v>12</v>
       </c>
       <c r="D26" s="33" t="s">
@@ -2265,7 +2282,7 @@
       </c>
     </row>
     <row r="27" spans="3:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="31"/>
+      <c r="C27" s="32"/>
       <c r="D27" s="33"/>
       <c r="E27" s="4" t="s">
         <v>1</v>
@@ -2290,7 +2307,7 @@
       </c>
     </row>
     <row r="28" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="31">
+      <c r="C28" s="32">
         <v>13</v>
       </c>
       <c r="D28" s="33" t="s">
@@ -2319,7 +2336,7 @@
       </c>
     </row>
     <row r="29" spans="3:11" ht="43.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="31"/>
+      <c r="C29" s="32"/>
       <c r="D29" s="33"/>
       <c r="E29" s="4" t="s">
         <v>1</v>
@@ -2344,7 +2361,7 @@
       </c>
     </row>
     <row r="30" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="31">
+      <c r="C30" s="32">
         <v>14</v>
       </c>
       <c r="D30" s="33" t="s">
@@ -2373,7 +2390,7 @@
       </c>
     </row>
     <row r="31" spans="3:11" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="31"/>
+      <c r="C31" s="32"/>
       <c r="D31" s="33"/>
       <c r="E31" s="4" t="s">
         <v>1</v>
@@ -2398,7 +2415,7 @@
       </c>
     </row>
     <row r="32" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="31">
+      <c r="C32" s="32">
         <v>15</v>
       </c>
       <c r="D32" s="33" t="s">
@@ -2427,7 +2444,7 @@
       </c>
     </row>
     <row r="33" spans="3:11" ht="58.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="31"/>
+      <c r="C33" s="32"/>
       <c r="D33" s="33"/>
       <c r="E33" s="4" t="s">
         <v>1</v>
@@ -2453,7 +2470,7 @@
     </row>
     <row r="34" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="38"/>
-      <c r="D34" s="35" t="s">
+      <c r="D34" s="34" t="s">
         <v>54</v>
       </c>
       <c r="E34" s="17" t="s">
@@ -2476,7 +2493,7 @@
     </row>
     <row r="35" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="38"/>
-      <c r="D35" s="35"/>
+      <c r="D35" s="34"/>
       <c r="E35" s="19" t="s">
         <v>1</v>
       </c>
@@ -2496,12 +2513,12 @@
       </c>
     </row>
     <row r="36" spans="3:11" ht="64.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="36" t="s">
+      <c r="C36" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="37"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="40"/>
     </row>
     <row r="37" spans="3:11" s="2" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" s="9" t="s">
@@ -2533,7 +2550,7 @@
       </c>
     </row>
     <row r="38" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="31">
+      <c r="C38" s="32">
         <v>16</v>
       </c>
       <c r="D38" s="33" t="s">
@@ -2562,7 +2579,7 @@
       </c>
     </row>
     <row r="39" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="31"/>
+      <c r="C39" s="32"/>
       <c r="D39" s="33"/>
       <c r="E39" s="4" t="s">
         <v>1</v>
@@ -2587,7 +2604,7 @@
       </c>
     </row>
     <row r="40" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="31">
+      <c r="C40" s="32">
         <v>17</v>
       </c>
       <c r="D40" s="33" t="s">
@@ -2616,7 +2633,7 @@
       </c>
     </row>
     <row r="41" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="31"/>
+      <c r="C41" s="32"/>
       <c r="D41" s="33"/>
       <c r="E41" s="4" t="s">
         <v>1</v>
@@ -2641,7 +2658,7 @@
       </c>
     </row>
     <row r="42" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="31">
+      <c r="C42" s="32">
         <v>18</v>
       </c>
       <c r="D42" s="33" t="s">
@@ -2670,7 +2687,7 @@
       </c>
     </row>
     <row r="43" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="31"/>
+      <c r="C43" s="32"/>
       <c r="D43" s="33"/>
       <c r="E43" s="4" t="s">
         <v>1</v>
@@ -2695,7 +2712,7 @@
       </c>
     </row>
     <row r="44" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="31">
+      <c r="C44" s="32">
         <v>19</v>
       </c>
       <c r="D44" s="33" t="s">
@@ -2724,7 +2741,7 @@
       </c>
     </row>
     <row r="45" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="31"/>
+      <c r="C45" s="32"/>
       <c r="D45" s="33"/>
       <c r="E45" s="4" t="s">
         <v>1</v>
@@ -2749,7 +2766,7 @@
       </c>
     </row>
     <row r="46" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="31">
+      <c r="C46" s="32">
         <v>20</v>
       </c>
       <c r="D46" s="33" t="s">
@@ -2778,7 +2795,7 @@
       </c>
     </row>
     <row r="47" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="31"/>
+      <c r="C47" s="32"/>
       <c r="D47" s="33"/>
       <c r="E47" s="4" t="s">
         <v>1</v>
@@ -2803,7 +2820,7 @@
       </c>
     </row>
     <row r="48" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="31">
+      <c r="C48" s="32">
         <v>21</v>
       </c>
       <c r="D48" s="33" t="s">
@@ -2832,7 +2849,7 @@
       </c>
     </row>
     <row r="49" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="31"/>
+      <c r="C49" s="32"/>
       <c r="D49" s="33"/>
       <c r="E49" s="4" t="s">
         <v>1</v>
@@ -2857,7 +2874,7 @@
       </c>
     </row>
     <row r="50" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="31">
+      <c r="C50" s="32">
         <v>22</v>
       </c>
       <c r="D50" s="33" t="s">
@@ -2886,7 +2903,7 @@
       </c>
     </row>
     <row r="51" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C51" s="31"/>
+      <c r="C51" s="32"/>
       <c r="D51" s="33"/>
       <c r="E51" s="4" t="s">
         <v>1</v>
@@ -2911,7 +2928,7 @@
       </c>
     </row>
     <row r="52" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="31">
+      <c r="C52" s="32">
         <v>23</v>
       </c>
       <c r="D52" s="33" t="s">
@@ -2940,7 +2957,7 @@
       </c>
     </row>
     <row r="53" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="31"/>
+      <c r="C53" s="32"/>
       <c r="D53" s="33"/>
       <c r="E53" s="4" t="s">
         <v>1</v>
@@ -2965,7 +2982,7 @@
       </c>
     </row>
     <row r="54" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="31">
+      <c r="C54" s="32">
         <v>24</v>
       </c>
       <c r="D54" s="33" t="s">
@@ -2994,7 +3011,7 @@
       </c>
     </row>
     <row r="55" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C55" s="31"/>
+      <c r="C55" s="32"/>
       <c r="D55" s="33"/>
       <c r="E55" s="4" t="s">
         <v>1</v>
@@ -3019,7 +3036,7 @@
       </c>
     </row>
     <row r="56" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="31">
+      <c r="C56" s="32">
         <v>25</v>
       </c>
       <c r="D56" s="33" t="s">
@@ -3048,7 +3065,7 @@
       </c>
     </row>
     <row r="57" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="31"/>
+      <c r="C57" s="32"/>
       <c r="D57" s="33"/>
       <c r="E57" s="4" t="s">
         <v>1</v>
@@ -3073,7 +3090,7 @@
       </c>
     </row>
     <row r="58" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="31">
+      <c r="C58" s="32">
         <v>26</v>
       </c>
       <c r="D58" s="33" t="s">
@@ -3102,7 +3119,7 @@
       </c>
     </row>
     <row r="59" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="31"/>
+      <c r="C59" s="32"/>
       <c r="D59" s="33"/>
       <c r="E59" s="4" t="s">
         <v>1</v>
@@ -3127,7 +3144,7 @@
       </c>
     </row>
     <row r="60" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="31">
+      <c r="C60" s="32">
         <v>27</v>
       </c>
       <c r="D60" s="33" t="s">
@@ -3156,7 +3173,7 @@
       </c>
     </row>
     <row r="61" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="31"/>
+      <c r="C61" s="32"/>
       <c r="D61" s="33"/>
       <c r="E61" s="4" t="s">
         <v>1</v>
@@ -3181,8 +3198,8 @@
       </c>
     </row>
     <row r="62" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="39"/>
-      <c r="D62" s="35" t="s">
+      <c r="C62" s="35"/>
+      <c r="D62" s="34" t="s">
         <v>55</v>
       </c>
       <c r="E62" s="17" t="s">
@@ -3202,8 +3219,8 @@
       </c>
     </row>
     <row r="63" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="39"/>
-      <c r="D63" s="35"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="34"/>
       <c r="E63" s="17" t="s">
         <v>1</v>
       </c>
@@ -3221,12 +3238,12 @@
       </c>
     </row>
     <row r="64" spans="3:11" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="40" t="s">
+      <c r="C64" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="D64" s="40"/>
-      <c r="E64" s="41"/>
-      <c r="F64" s="41"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="37"/>
     </row>
     <row r="65" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C65" s="11" t="s">
@@ -3258,7 +3275,7 @@
       </c>
     </row>
     <row r="66" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="31">
+      <c r="C66" s="32">
         <v>28</v>
       </c>
       <c r="D66" s="33" t="s">
@@ -3287,7 +3304,7 @@
       </c>
     </row>
     <row r="67" spans="3:11" ht="41.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C67" s="31"/>
+      <c r="C67" s="32"/>
       <c r="D67" s="33"/>
       <c r="E67" s="13" t="s">
         <v>1</v>
@@ -3312,7 +3329,7 @@
       </c>
     </row>
     <row r="68" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="31">
+      <c r="C68" s="32">
         <v>29</v>
       </c>
       <c r="D68" s="33" t="s">
@@ -3341,7 +3358,7 @@
       </c>
     </row>
     <row r="69" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C69" s="31"/>
+      <c r="C69" s="32"/>
       <c r="D69" s="33"/>
       <c r="E69" s="13" t="s">
         <v>1</v>
@@ -3366,7 +3383,7 @@
       </c>
     </row>
     <row r="70" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C70" s="31">
+      <c r="C70" s="32">
         <v>30</v>
       </c>
       <c r="D70" s="33" t="s">
@@ -3395,7 +3412,7 @@
       </c>
     </row>
     <row r="71" spans="3:11" ht="53.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C71" s="31"/>
+      <c r="C71" s="32"/>
       <c r="D71" s="33"/>
       <c r="E71" s="13" t="s">
         <v>1</v>
@@ -3420,7 +3437,7 @@
       </c>
     </row>
     <row r="72" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C72" s="31">
+      <c r="C72" s="32">
         <v>31</v>
       </c>
       <c r="D72" s="33" t="s">
@@ -3449,7 +3466,7 @@
       </c>
     </row>
     <row r="73" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C73" s="31"/>
+      <c r="C73" s="32"/>
       <c r="D73" s="33"/>
       <c r="E73" s="13" t="s">
         <v>1</v>
@@ -3474,7 +3491,7 @@
       </c>
     </row>
     <row r="74" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C74" s="31">
+      <c r="C74" s="32">
         <v>32</v>
       </c>
       <c r="D74" s="33" t="s">
@@ -3503,7 +3520,7 @@
       </c>
     </row>
     <row r="75" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C75" s="31"/>
+      <c r="C75" s="32"/>
       <c r="D75" s="33"/>
       <c r="E75" s="13" t="s">
         <v>1</v>
@@ -3528,7 +3545,7 @@
       </c>
     </row>
     <row r="76" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C76" s="31">
+      <c r="C76" s="32">
         <v>33</v>
       </c>
       <c r="D76" s="33" t="s">
@@ -3555,7 +3572,7 @@
       </c>
     </row>
     <row r="77" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C77" s="31"/>
+      <c r="C77" s="32"/>
       <c r="D77" s="33"/>
       <c r="E77" s="13" t="s">
         <v>1</v>
@@ -3578,7 +3595,7 @@
       </c>
     </row>
     <row r="78" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C78" s="31">
+      <c r="C78" s="32">
         <v>34</v>
       </c>
       <c r="D78" s="33" t="s">
@@ -3607,7 +3624,7 @@
       </c>
     </row>
     <row r="79" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C79" s="31"/>
+      <c r="C79" s="32"/>
       <c r="D79" s="33"/>
       <c r="E79" s="13" t="s">
         <v>1</v>
@@ -3632,7 +3649,7 @@
       </c>
     </row>
     <row r="80" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C80" s="31">
+      <c r="C80" s="32">
         <v>35</v>
       </c>
       <c r="D80" s="33" t="s">
@@ -3661,7 +3678,7 @@
       </c>
     </row>
     <row r="81" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C81" s="31"/>
+      <c r="C81" s="32"/>
       <c r="D81" s="33"/>
       <c r="E81" s="13" t="s">
         <v>1</v>
@@ -3686,7 +3703,7 @@
       </c>
     </row>
     <row r="82" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C82" s="31">
+      <c r="C82" s="32">
         <v>36</v>
       </c>
       <c r="D82" s="33" t="s">
@@ -3715,7 +3732,7 @@
       </c>
     </row>
     <row r="83" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C83" s="31"/>
+      <c r="C83" s="32"/>
       <c r="D83" s="33"/>
       <c r="E83" s="13" t="s">
         <v>1</v>
@@ -3740,7 +3757,7 @@
       </c>
     </row>
     <row r="84" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C84" s="31">
+      <c r="C84" s="32">
         <v>37</v>
       </c>
       <c r="D84" s="33" t="s">
@@ -3769,7 +3786,7 @@
       </c>
     </row>
     <row r="85" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C85" s="31"/>
+      <c r="C85" s="32"/>
       <c r="D85" s="33"/>
       <c r="E85" s="13" t="s">
         <v>1</v>
@@ -3794,7 +3811,7 @@
       </c>
     </row>
     <row r="86" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C86" s="31">
+      <c r="C86" s="32">
         <v>38</v>
       </c>
       <c r="D86" s="33" t="s">
@@ -3823,7 +3840,7 @@
       </c>
     </row>
     <row r="87" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C87" s="31"/>
+      <c r="C87" s="32"/>
       <c r="D87" s="33"/>
       <c r="E87" s="13" t="s">
         <v>1</v>
@@ -3848,7 +3865,7 @@
       </c>
     </row>
     <row r="88" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C88" s="31">
+      <c r="C88" s="32">
         <v>39</v>
       </c>
       <c r="D88" s="33" t="s">
@@ -3877,7 +3894,7 @@
       </c>
     </row>
     <row r="89" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C89" s="31"/>
+      <c r="C89" s="32"/>
       <c r="D89" s="33"/>
       <c r="E89" s="13" t="s">
         <v>1</v>
@@ -3902,7 +3919,7 @@
       </c>
     </row>
     <row r="90" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C90" s="31">
+      <c r="C90" s="32">
         <v>40</v>
       </c>
       <c r="D90" s="33" t="s">
@@ -3931,7 +3948,7 @@
       </c>
     </row>
     <row r="91" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C91" s="31"/>
+      <c r="C91" s="32"/>
       <c r="D91" s="33"/>
       <c r="E91" s="13" t="s">
         <v>1</v>
@@ -3956,7 +3973,7 @@
       </c>
     </row>
     <row r="92" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C92" s="31">
+      <c r="C92" s="32">
         <v>41</v>
       </c>
       <c r="D92" s="33" t="s">
@@ -3985,7 +4002,7 @@
       </c>
     </row>
     <row r="93" spans="3:11" ht="46.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C93" s="31"/>
+      <c r="C93" s="32"/>
       <c r="D93" s="33"/>
       <c r="E93" s="13" t="s">
         <v>1</v>
@@ -4010,7 +4027,7 @@
       </c>
     </row>
     <row r="94" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C94" s="31">
+      <c r="C94" s="32">
         <v>42</v>
       </c>
       <c r="D94" s="33" t="s">
@@ -4039,7 +4056,7 @@
       </c>
     </row>
     <row r="95" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C95" s="31"/>
+      <c r="C95" s="32"/>
       <c r="D95" s="33"/>
       <c r="E95" s="13" t="s">
         <v>1</v>
@@ -4064,7 +4081,7 @@
       </c>
     </row>
     <row r="96" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C96" s="31">
+      <c r="C96" s="32">
         <v>43</v>
       </c>
       <c r="D96" s="33" t="s">
@@ -4093,7 +4110,7 @@
       </c>
     </row>
     <row r="97" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C97" s="31"/>
+      <c r="C97" s="32"/>
       <c r="D97" s="33"/>
       <c r="E97" s="13" t="s">
         <v>1</v>
@@ -4118,7 +4135,7 @@
       </c>
     </row>
     <row r="98" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C98" s="31">
+      <c r="C98" s="32">
         <v>44</v>
       </c>
       <c r="D98" s="33" t="s">
@@ -4147,7 +4164,7 @@
       </c>
     </row>
     <row r="99" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C99" s="31"/>
+      <c r="C99" s="32"/>
       <c r="D99" s="33"/>
       <c r="E99" s="13" t="s">
         <v>1</v>
@@ -4172,7 +4189,7 @@
       </c>
     </row>
     <row r="100" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C100" s="31">
+      <c r="C100" s="32">
         <v>45</v>
       </c>
       <c r="D100" s="33" t="s">
@@ -4201,7 +4218,7 @@
       </c>
     </row>
     <row r="101" spans="3:11" ht="48.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C101" s="31"/>
+      <c r="C101" s="32"/>
       <c r="D101" s="33"/>
       <c r="E101" s="13" t="s">
         <v>1</v>
@@ -4226,7 +4243,7 @@
       </c>
     </row>
     <row r="102" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C102" s="31">
+      <c r="C102" s="32">
         <v>46</v>
       </c>
       <c r="D102" s="33" t="s">
@@ -4255,7 +4272,7 @@
       </c>
     </row>
     <row r="103" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C103" s="31"/>
+      <c r="C103" s="32"/>
       <c r="D103" s="33"/>
       <c r="E103" s="13" t="s">
         <v>1</v>
@@ -4280,7 +4297,7 @@
       </c>
     </row>
     <row r="104" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C104" s="31">
+      <c r="C104" s="32">
         <v>47</v>
       </c>
       <c r="D104" s="33" t="s">
@@ -4309,7 +4326,7 @@
       </c>
     </row>
     <row r="105" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C105" s="31"/>
+      <c r="C105" s="32"/>
       <c r="D105" s="33"/>
       <c r="E105" s="13" t="s">
         <v>1</v>
@@ -4334,7 +4351,7 @@
       </c>
     </row>
     <row r="106" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C106" s="31">
+      <c r="C106" s="32">
         <v>48</v>
       </c>
       <c r="D106" s="33" t="s">
@@ -4363,7 +4380,7 @@
       </c>
     </row>
     <row r="107" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C107" s="31"/>
+      <c r="C107" s="32"/>
       <c r="D107" s="33"/>
       <c r="E107" s="13" t="s">
         <v>1</v>
@@ -4388,7 +4405,7 @@
       </c>
     </row>
     <row r="108" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C108" s="31">
+      <c r="C108" s="32">
         <v>49</v>
       </c>
       <c r="D108" s="33" t="s">
@@ -4417,7 +4434,7 @@
       </c>
     </row>
     <row r="109" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C109" s="31"/>
+      <c r="C109" s="32"/>
       <c r="D109" s="33"/>
       <c r="E109" s="13" t="s">
         <v>1</v>
@@ -4442,7 +4459,7 @@
       </c>
     </row>
     <row r="110" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C110" s="31">
+      <c r="C110" s="32">
         <v>50</v>
       </c>
       <c r="D110" s="33" t="s">
@@ -4471,7 +4488,7 @@
       </c>
     </row>
     <row r="111" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C111" s="31"/>
+      <c r="C111" s="32"/>
       <c r="D111" s="33"/>
       <c r="E111" s="13" t="s">
         <v>1</v>
@@ -4496,7 +4513,7 @@
       </c>
     </row>
     <row r="112" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C112" s="31">
+      <c r="C112" s="32">
         <v>51</v>
       </c>
       <c r="D112" s="33" t="s">
@@ -4525,7 +4542,7 @@
       </c>
     </row>
     <row r="113" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C113" s="31"/>
+      <c r="C113" s="32"/>
       <c r="D113" s="33"/>
       <c r="E113" s="13" t="s">
         <v>1</v>
@@ -4550,7 +4567,7 @@
       </c>
     </row>
     <row r="114" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C114" s="31">
+      <c r="C114" s="32">
         <v>52</v>
       </c>
       <c r="D114" s="33" t="s">
@@ -4579,7 +4596,7 @@
       </c>
     </row>
     <row r="115" spans="3:11" ht="60.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C115" s="31"/>
+      <c r="C115" s="32"/>
       <c r="D115" s="33"/>
       <c r="E115" s="13" t="s">
         <v>1</v>
@@ -4604,7 +4621,7 @@
       </c>
     </row>
     <row r="116" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C116" s="31">
+      <c r="C116" s="32">
         <v>53</v>
       </c>
       <c r="D116" s="33" t="s">
@@ -4633,7 +4650,7 @@
       </c>
     </row>
     <row r="117" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C117" s="31"/>
+      <c r="C117" s="32"/>
       <c r="D117" s="33"/>
       <c r="E117" s="13" t="s">
         <v>1</v>
@@ -4658,7 +4675,7 @@
       </c>
     </row>
     <row r="118" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C118" s="31">
+      <c r="C118" s="32">
         <v>54</v>
       </c>
       <c r="D118" s="33" t="s">
@@ -4687,7 +4704,7 @@
       </c>
     </row>
     <row r="119" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C119" s="31"/>
+      <c r="C119" s="32"/>
       <c r="D119" s="33"/>
       <c r="E119" s="13" t="s">
         <v>1</v>
@@ -4712,7 +4729,7 @@
       </c>
     </row>
     <row r="120" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C120" s="31">
+      <c r="C120" s="32">
         <v>55</v>
       </c>
       <c r="D120" s="33" t="s">
@@ -4741,7 +4758,7 @@
       </c>
     </row>
     <row r="121" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C121" s="31"/>
+      <c r="C121" s="32"/>
       <c r="D121" s="33"/>
       <c r="E121" s="13" t="s">
         <v>1</v>
@@ -4766,7 +4783,7 @@
       </c>
     </row>
     <row r="122" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C122" s="31">
+      <c r="C122" s="32">
         <v>56</v>
       </c>
       <c r="D122" s="33" t="s">
@@ -4795,7 +4812,7 @@
       </c>
     </row>
     <row r="123" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C123" s="31"/>
+      <c r="C123" s="32"/>
       <c r="D123" s="33"/>
       <c r="E123" s="13" t="s">
         <v>1</v>
@@ -4820,7 +4837,7 @@
       </c>
     </row>
     <row r="124" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C124" s="31">
+      <c r="C124" s="32">
         <v>57</v>
       </c>
       <c r="D124" s="33" t="s">
@@ -4849,7 +4866,7 @@
       </c>
     </row>
     <row r="125" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C125" s="31"/>
+      <c r="C125" s="32"/>
       <c r="D125" s="33"/>
       <c r="E125" s="13" t="s">
         <v>1</v>
@@ -4874,7 +4891,7 @@
       </c>
     </row>
     <row r="126" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C126" s="31">
+      <c r="C126" s="32">
         <v>58</v>
       </c>
       <c r="D126" s="33" t="s">
@@ -4903,7 +4920,7 @@
       </c>
     </row>
     <row r="127" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C127" s="31"/>
+      <c r="C127" s="32"/>
       <c r="D127" s="33"/>
       <c r="E127" s="13" t="s">
         <v>1</v>
@@ -4928,7 +4945,7 @@
       </c>
     </row>
     <row r="128" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C128" s="31">
+      <c r="C128" s="32">
         <v>59</v>
       </c>
       <c r="D128" s="33" t="s">
@@ -4957,7 +4974,7 @@
       </c>
     </row>
     <row r="129" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C129" s="31"/>
+      <c r="C129" s="32"/>
       <c r="D129" s="33"/>
       <c r="E129" s="13" t="s">
         <v>1</v>
@@ -4982,7 +4999,7 @@
       </c>
     </row>
     <row r="130" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C130" s="31">
+      <c r="C130" s="32">
         <v>60</v>
       </c>
       <c r="D130" s="33" t="s">
@@ -5011,7 +5028,7 @@
       </c>
     </row>
     <row r="131" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C131" s="31"/>
+      <c r="C131" s="32"/>
       <c r="D131" s="33"/>
       <c r="E131" s="13" t="s">
         <v>1</v>
@@ -5036,7 +5053,7 @@
       </c>
     </row>
     <row r="132" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C132" s="31">
+      <c r="C132" s="32">
         <v>61</v>
       </c>
       <c r="D132" s="33" t="s">
@@ -5065,7 +5082,7 @@
       </c>
     </row>
     <row r="133" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C133" s="31"/>
+      <c r="C133" s="32"/>
       <c r="D133" s="33"/>
       <c r="E133" s="13" t="s">
         <v>1</v>
@@ -5090,7 +5107,7 @@
       </c>
     </row>
     <row r="134" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C134" s="31">
+      <c r="C134" s="32">
         <v>62</v>
       </c>
       <c r="D134" s="33" t="s">
@@ -5119,7 +5136,7 @@
       </c>
     </row>
     <row r="135" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C135" s="31"/>
+      <c r="C135" s="32"/>
       <c r="D135" s="33"/>
       <c r="E135" s="13" t="s">
         <v>1</v>
@@ -5144,8 +5161,8 @@
       </c>
     </row>
     <row r="136" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C136" s="39"/>
-      <c r="D136" s="35" t="s">
+      <c r="C136" s="35"/>
+      <c r="D136" s="34" t="s">
         <v>45</v>
       </c>
       <c r="E136" s="19" t="s">
@@ -5167,8 +5184,8 @@
       </c>
     </row>
     <row r="137" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C137" s="39"/>
-      <c r="D137" s="35"/>
+      <c r="C137" s="35"/>
+      <c r="D137" s="34"/>
       <c r="E137" s="19" t="s">
         <v>1</v>
       </c>
@@ -5188,10 +5205,10 @@
       </c>
     </row>
     <row r="139" spans="3:11" ht="48.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C139" s="42" t="s">
+      <c r="C139" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="D139" s="42"/>
+      <c r="D139" s="31"/>
       <c r="E139" s="6" t="s">
         <v>84</v>
       </c>
@@ -5291,80 +5308,42 @@
     </row>
   </sheetData>
   <mergeCells count="134">
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="C132:C133"/>
-    <mergeCell ref="D132:D133"/>
-    <mergeCell ref="C134:C135"/>
-    <mergeCell ref="D134:D135"/>
-    <mergeCell ref="D136:D137"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="C128:C129"/>
-    <mergeCell ref="D128:D129"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="D130:D131"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="D122:D123"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="C64:F64"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
     <mergeCell ref="C58:C59"/>
     <mergeCell ref="D58:D59"/>
     <mergeCell ref="D60:D61"/>
@@ -5389,42 +5368,80 @@
     <mergeCell ref="C42:C43"/>
     <mergeCell ref="D42:D43"/>
     <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="C64:F64"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="D122:D123"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="D132:D133"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="D134:D135"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="D128:D129"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="D130:D131"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -5450,14 +5467,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="178.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="44"/>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="9" t="s">
@@ -5474,13 +5491,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="31">
-        <v>1</v>
-      </c>
-      <c r="C4" s="31">
-        <v>1</v>
-      </c>
-      <c r="D4" s="32" t="s">
+      <c r="B4" s="32">
+        <v>1</v>
+      </c>
+      <c r="C4" s="32">
+        <v>1</v>
+      </c>
+      <c r="D4" s="41" t="s">
         <v>56</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -5489,19 +5506,19 @@
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="41"/>
       <c r="E5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="31">
+      <c r="B6" s="32">
         <v>2</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="32">
         <v>2</v>
       </c>
       <c r="D6" s="33" t="s">
@@ -5513,8 +5530,8 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="33"/>
       <c r="E7" s="4" t="s">
         <v>1</v>
@@ -5522,13 +5539,13 @@
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="31">
-        <v>3</v>
-      </c>
-      <c r="C8" s="31">
-        <v>3</v>
-      </c>
-      <c r="D8" s="32" t="s">
+      <c r="B8" s="32">
+        <v>3</v>
+      </c>
+      <c r="C8" s="32">
+        <v>3</v>
+      </c>
+      <c r="D8" s="41" t="s">
         <v>57</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -5537,19 +5554,19 @@
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="41"/>
       <c r="E9" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="31">
+      <c r="B10" s="32">
         <v>4</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="32">
         <v>4</v>
       </c>
       <c r="D10" s="33" t="s">
@@ -5561,8 +5578,8 @@
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="33"/>
       <c r="E11" s="4" t="s">
         <v>1</v>
@@ -5570,10 +5587,10 @@
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="31">
+      <c r="B12" s="32">
         <v>5</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="32">
         <v>5</v>
       </c>
       <c r="D12" s="33" t="s">
@@ -5585,8 +5602,8 @@
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" ht="41.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
       <c r="D13" s="33"/>
       <c r="E13" s="4" t="s">
         <v>1</v>
@@ -5594,10 +5611,10 @@
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="31">
+      <c r="B14" s="32">
         <v>6</v>
       </c>
-      <c r="C14" s="31">
+      <c r="C14" s="32">
         <v>6</v>
       </c>
       <c r="D14" s="33" t="s">
@@ -5609,8 +5626,8 @@
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="33"/>
       <c r="E15" s="4" t="s">
         <v>1</v>
@@ -5618,10 +5635,10 @@
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="31">
+      <c r="B16" s="32">
         <v>7</v>
       </c>
-      <c r="C16" s="31">
+      <c r="C16" s="32">
         <v>7</v>
       </c>
       <c r="D16" s="33" t="s">
@@ -5633,8 +5650,8 @@
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="2:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
       <c r="D17" s="33"/>
       <c r="E17" s="4" t="s">
         <v>1</v>
@@ -5642,10 +5659,10 @@
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="31">
+      <c r="B18" s="32">
         <v>8</v>
       </c>
-      <c r="C18" s="31">
+      <c r="C18" s="32">
         <v>8</v>
       </c>
       <c r="D18" s="33" t="s">
@@ -5657,8 +5674,8 @@
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="2:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
       <c r="D19" s="33"/>
       <c r="E19" s="4" t="s">
         <v>1</v>
@@ -5666,10 +5683,10 @@
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="31">
+      <c r="B20" s="32">
         <v>9</v>
       </c>
-      <c r="C20" s="31">
+      <c r="C20" s="32">
         <v>9</v>
       </c>
       <c r="D20" s="33" t="s">
@@ -5681,8 +5698,8 @@
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="2:6" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
       <c r="D21" s="33"/>
       <c r="E21" s="4" t="s">
         <v>1</v>
@@ -5690,10 +5707,10 @@
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="31">
+      <c r="B22" s="32">
         <v>10</v>
       </c>
-      <c r="C22" s="31">
+      <c r="C22" s="32">
         <v>10</v>
       </c>
       <c r="D22" s="33" t="s">
@@ -5705,8 +5722,8 @@
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="2:6" ht="51.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
       <c r="D23" s="33"/>
       <c r="E23" s="4" t="s">
         <v>1</v>
@@ -5714,10 +5731,10 @@
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="31">
+      <c r="B24" s="32">
         <v>11</v>
       </c>
-      <c r="C24" s="31">
+      <c r="C24" s="32">
         <v>11</v>
       </c>
       <c r="D24" s="33" t="s">
@@ -5729,8 +5746,8 @@
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
       <c r="D25" s="33"/>
       <c r="E25" s="4" t="s">
         <v>1</v>
@@ -5738,10 +5755,10 @@
       <c r="F25" s="4"/>
     </row>
     <row r="26" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="31">
+      <c r="B26" s="32">
         <v>12</v>
       </c>
-      <c r="C26" s="31">
+      <c r="C26" s="32">
         <v>12</v>
       </c>
       <c r="D26" s="33" t="s">
@@ -5753,8 +5770,8 @@
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="2:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
       <c r="D27" s="33"/>
       <c r="E27" s="4" t="s">
         <v>1</v>
@@ -5762,10 +5779,10 @@
       <c r="F27" s="4"/>
     </row>
     <row r="28" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="31">
+      <c r="B28" s="32">
         <v>13</v>
       </c>
-      <c r="C28" s="31">
+      <c r="C28" s="32">
         <v>13</v>
       </c>
       <c r="D28" s="33" t="s">
@@ -5777,8 +5794,8 @@
       <c r="F28" s="4"/>
     </row>
     <row r="29" spans="2:6" ht="43.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
       <c r="D29" s="33"/>
       <c r="E29" s="4" t="s">
         <v>1</v>
@@ -5786,10 +5803,10 @@
       <c r="F29" s="4"/>
     </row>
     <row r="30" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="31">
+      <c r="B30" s="32">
         <v>14</v>
       </c>
-      <c r="C30" s="31">
+      <c r="C30" s="32">
         <v>14</v>
       </c>
       <c r="D30" s="33" t="s">
@@ -5801,8 +5818,8 @@
       <c r="F30" s="4"/>
     </row>
     <row r="31" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
       <c r="D31" s="33"/>
       <c r="E31" s="4" t="s">
         <v>1</v>
@@ -5810,10 +5827,10 @@
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="31">
+      <c r="B32" s="32">
         <v>15</v>
       </c>
-      <c r="C32" s="31">
+      <c r="C32" s="32">
         <v>15</v>
       </c>
       <c r="D32" s="33" t="s">
@@ -5825,8 +5842,8 @@
       <c r="F32" s="4"/>
     </row>
     <row r="33" spans="2:6" ht="58.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
       <c r="D33" s="33"/>
       <c r="E33" s="4" t="s">
         <v>1</v>
@@ -5834,8 +5851,8 @@
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="31"/>
-      <c r="D34" s="44" t="s">
+      <c r="C34" s="32"/>
+      <c r="D34" s="45" t="s">
         <v>54</v>
       </c>
       <c r="E34" s="4" t="s">
@@ -5844,20 +5861,20 @@
       <c r="F34" s="4"/>
     </row>
     <row r="35" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="31"/>
-      <c r="D35" s="44"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="45"/>
       <c r="E35" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="2:6" ht="64.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="36" t="s">
+      <c r="C36" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
     </row>
     <row r="37" spans="2:6" s="2" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" s="9" t="s">
@@ -5874,10 +5891,10 @@
       </c>
     </row>
     <row r="38" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="31">
+      <c r="B38" s="32">
         <v>16</v>
       </c>
-      <c r="C38" s="31">
+      <c r="C38" s="32">
         <v>16</v>
       </c>
       <c r="D38" s="33" t="s">
@@ -5889,8 +5906,8 @@
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
       <c r="D39" s="33"/>
       <c r="E39" s="4" t="s">
         <v>1</v>
@@ -5898,10 +5915,10 @@
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="31">
+      <c r="B40" s="32">
         <v>17</v>
       </c>
-      <c r="C40" s="31">
+      <c r="C40" s="32">
         <v>17</v>
       </c>
       <c r="D40" s="33" t="s">
@@ -5913,8 +5930,8 @@
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
       <c r="D41" s="33"/>
       <c r="E41" s="4" t="s">
         <v>1</v>
@@ -5922,10 +5939,10 @@
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="31">
+      <c r="B42" s="32">
         <v>18</v>
       </c>
-      <c r="C42" s="31">
+      <c r="C42" s="32">
         <v>18</v>
       </c>
       <c r="D42" s="33" t="s">
@@ -5937,8 +5954,8 @@
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
       <c r="D43" s="33"/>
       <c r="E43" s="4" t="s">
         <v>1</v>
@@ -5946,10 +5963,10 @@
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="31">
+      <c r="B44" s="32">
         <v>19</v>
       </c>
-      <c r="C44" s="31">
+      <c r="C44" s="32">
         <v>19</v>
       </c>
       <c r="D44" s="33" t="s">
@@ -5961,8 +5978,8 @@
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
       <c r="D45" s="33"/>
       <c r="E45" s="4" t="s">
         <v>1</v>
@@ -5970,10 +5987,10 @@
       <c r="F45" s="4"/>
     </row>
     <row r="46" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="31">
+      <c r="B46" s="32">
         <v>20</v>
       </c>
-      <c r="C46" s="31">
+      <c r="C46" s="32">
         <v>20</v>
       </c>
       <c r="D46" s="33" t="s">
@@ -5985,8 +6002,8 @@
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
       <c r="D47" s="33"/>
       <c r="E47" s="4" t="s">
         <v>1</v>
@@ -5994,10 +6011,10 @@
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="31">
+      <c r="B48" s="32">
         <v>21</v>
       </c>
-      <c r="C48" s="31">
+      <c r="C48" s="32">
         <v>21</v>
       </c>
       <c r="D48" s="33" t="s">
@@ -6009,8 +6026,8 @@
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="31"/>
-      <c r="C49" s="31"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
       <c r="D49" s="33"/>
       <c r="E49" s="4" t="s">
         <v>1</v>
@@ -6018,10 +6035,10 @@
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="31">
+      <c r="B50" s="32">
         <v>22</v>
       </c>
-      <c r="C50" s="31">
+      <c r="C50" s="32">
         <v>22</v>
       </c>
       <c r="D50" s="33" t="s">
@@ -6033,8 +6050,8 @@
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="31"/>
-      <c r="C51" s="31"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
       <c r="D51" s="33"/>
       <c r="E51" s="4" t="s">
         <v>1</v>
@@ -6042,10 +6059,10 @@
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="31">
+      <c r="B52" s="32">
         <v>23</v>
       </c>
-      <c r="C52" s="31">
+      <c r="C52" s="32">
         <v>23</v>
       </c>
       <c r="D52" s="33" t="s">
@@ -6057,8 +6074,8 @@
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="31"/>
-      <c r="C53" s="31"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
       <c r="D53" s="33"/>
       <c r="E53" s="4" t="s">
         <v>1</v>
@@ -6066,10 +6083,10 @@
       <c r="F53" s="4"/>
     </row>
     <row r="54" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="31">
+      <c r="B54" s="32">
         <v>24</v>
       </c>
-      <c r="C54" s="31">
+      <c r="C54" s="32">
         <v>24</v>
       </c>
       <c r="D54" s="33" t="s">
@@ -6081,8 +6098,8 @@
       <c r="F54" s="4"/>
     </row>
     <row r="55" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="31"/>
-      <c r="C55" s="31"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
       <c r="D55" s="33"/>
       <c r="E55" s="4" t="s">
         <v>1</v>
@@ -6090,10 +6107,10 @@
       <c r="F55" s="4"/>
     </row>
     <row r="56" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="31">
+      <c r="B56" s="32">
         <v>25</v>
       </c>
-      <c r="C56" s="31">
+      <c r="C56" s="32">
         <v>25</v>
       </c>
       <c r="D56" s="33" t="s">
@@ -6105,8 +6122,8 @@
       <c r="F56" s="4"/>
     </row>
     <row r="57" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="31"/>
-      <c r="C57" s="31"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="32"/>
       <c r="D57" s="33"/>
       <c r="E57" s="4" t="s">
         <v>1</v>
@@ -6114,10 +6131,10 @@
       <c r="F57" s="4"/>
     </row>
     <row r="58" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="31">
+      <c r="B58" s="32">
         <v>26</v>
       </c>
-      <c r="C58" s="31">
+      <c r="C58" s="32">
         <v>26</v>
       </c>
       <c r="D58" s="33" t="s">
@@ -6129,8 +6146,8 @@
       <c r="F58" s="4"/>
     </row>
     <row r="59" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="31"/>
-      <c r="C59" s="31"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="32"/>
       <c r="D59" s="33"/>
       <c r="E59" s="4" t="s">
         <v>1</v>
@@ -6138,10 +6155,10 @@
       <c r="F59" s="4"/>
     </row>
     <row r="60" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="31">
+      <c r="B60" s="32">
         <v>27</v>
       </c>
-      <c r="C60" s="31">
+      <c r="C60" s="32">
         <v>27</v>
       </c>
       <c r="D60" s="33" t="s">
@@ -6153,8 +6170,8 @@
       <c r="F60" s="4"/>
     </row>
     <row r="61" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="31"/>
-      <c r="C61" s="31"/>
+      <c r="B61" s="32"/>
+      <c r="C61" s="32"/>
       <c r="D61" s="33"/>
       <c r="E61" s="4" t="s">
         <v>1</v>
@@ -6162,8 +6179,8 @@
       <c r="F61" s="4"/>
     </row>
     <row r="62" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="43"/>
-      <c r="D62" s="44" t="s">
+      <c r="C62" s="46"/>
+      <c r="D62" s="45" t="s">
         <v>55</v>
       </c>
       <c r="E62" s="4" t="s">
@@ -6172,20 +6189,20 @@
       <c r="F62" s="4"/>
     </row>
     <row r="63" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="43"/>
-      <c r="D63" s="44"/>
+      <c r="C63" s="46"/>
+      <c r="D63" s="45"/>
       <c r="E63" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F63" s="4"/>
     </row>
     <row r="64" spans="2:6" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="40" t="s">
+      <c r="C64" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="D64" s="40"/>
-      <c r="E64" s="40"/>
-      <c r="F64" s="40"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="36"/>
     </row>
     <row r="65" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C65" s="11" t="s">
@@ -6202,10 +6219,10 @@
       </c>
     </row>
     <row r="66" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="31">
+      <c r="B66" s="32">
         <v>28</v>
       </c>
-      <c r="C66" s="31">
+      <c r="C66" s="32">
         <v>28</v>
       </c>
       <c r="D66" s="33" t="s">
@@ -6217,8 +6234,8 @@
       <c r="F66" s="4"/>
     </row>
     <row r="67" spans="2:6" ht="41.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="31"/>
-      <c r="C67" s="31"/>
+      <c r="B67" s="32"/>
+      <c r="C67" s="32"/>
       <c r="D67" s="33"/>
       <c r="E67" s="4" t="s">
         <v>1</v>
@@ -6226,10 +6243,10 @@
       <c r="F67" s="4"/>
     </row>
     <row r="68" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="31">
+      <c r="B68" s="32">
         <v>29</v>
       </c>
-      <c r="C68" s="31">
+      <c r="C68" s="32">
         <v>29</v>
       </c>
       <c r="D68" s="33" t="s">
@@ -6241,8 +6258,8 @@
       <c r="F68" s="4"/>
     </row>
     <row r="69" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="31"/>
-      <c r="C69" s="31"/>
+      <c r="B69" s="32"/>
+      <c r="C69" s="32"/>
       <c r="D69" s="33"/>
       <c r="E69" s="4" t="s">
         <v>1</v>
@@ -6250,10 +6267,10 @@
       <c r="F69" s="4"/>
     </row>
     <row r="70" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="31">
+      <c r="B70" s="32">
         <v>30</v>
       </c>
-      <c r="C70" s="31">
+      <c r="C70" s="32">
         <v>30</v>
       </c>
       <c r="D70" s="33" t="s">
@@ -6265,8 +6282,8 @@
       <c r="F70" s="4"/>
     </row>
     <row r="71" spans="2:6" ht="53.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="31"/>
-      <c r="C71" s="31"/>
+      <c r="B71" s="32"/>
+      <c r="C71" s="32"/>
       <c r="D71" s="33"/>
       <c r="E71" s="4" t="s">
         <v>1</v>
@@ -6274,10 +6291,10 @@
       <c r="F71" s="4"/>
     </row>
     <row r="72" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="31">
+      <c r="B72" s="32">
         <v>31</v>
       </c>
-      <c r="C72" s="31">
+      <c r="C72" s="32">
         <v>31</v>
       </c>
       <c r="D72" s="33" t="s">
@@ -6289,8 +6306,8 @@
       <c r="F72" s="4"/>
     </row>
     <row r="73" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="31"/>
-      <c r="C73" s="31"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="32"/>
       <c r="D73" s="33"/>
       <c r="E73" s="4" t="s">
         <v>1</v>
@@ -6298,10 +6315,10 @@
       <c r="F73" s="4"/>
     </row>
     <row r="74" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="31">
+      <c r="B74" s="32">
         <v>32</v>
       </c>
-      <c r="C74" s="31">
+      <c r="C74" s="32">
         <v>32</v>
       </c>
       <c r="D74" s="33" t="s">
@@ -6313,8 +6330,8 @@
       <c r="F74" s="4"/>
     </row>
     <row r="75" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="31"/>
-      <c r="C75" s="31"/>
+      <c r="B75" s="32"/>
+      <c r="C75" s="32"/>
       <c r="D75" s="33"/>
       <c r="E75" s="4" t="s">
         <v>1</v>
@@ -6322,10 +6339,10 @@
       <c r="F75" s="4"/>
     </row>
     <row r="76" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="31">
+      <c r="B76" s="32">
         <v>33</v>
       </c>
-      <c r="C76" s="31">
+      <c r="C76" s="32">
         <v>33</v>
       </c>
       <c r="D76" s="33" t="s">
@@ -6337,8 +6354,8 @@
       <c r="F76" s="4"/>
     </row>
     <row r="77" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="31"/>
-      <c r="C77" s="31"/>
+      <c r="B77" s="32"/>
+      <c r="C77" s="32"/>
       <c r="D77" s="33"/>
       <c r="E77" s="4" t="s">
         <v>1</v>
@@ -6346,10 +6363,10 @@
       <c r="F77" s="4"/>
     </row>
     <row r="78" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="31">
+      <c r="B78" s="32">
         <v>34</v>
       </c>
-      <c r="C78" s="31">
+      <c r="C78" s="32">
         <v>34</v>
       </c>
       <c r="D78" s="33" t="s">
@@ -6361,8 +6378,8 @@
       <c r="F78" s="4"/>
     </row>
     <row r="79" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="31"/>
-      <c r="C79" s="31"/>
+      <c r="B79" s="32"/>
+      <c r="C79" s="32"/>
       <c r="D79" s="33"/>
       <c r="E79" s="4" t="s">
         <v>1</v>
@@ -6370,10 +6387,10 @@
       <c r="F79" s="4"/>
     </row>
     <row r="80" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="31">
+      <c r="B80" s="32">
         <v>35</v>
       </c>
-      <c r="C80" s="31">
+      <c r="C80" s="32">
         <v>35</v>
       </c>
       <c r="D80" s="33" t="s">
@@ -6385,8 +6402,8 @@
       <c r="F80" s="4"/>
     </row>
     <row r="81" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="31"/>
-      <c r="C81" s="31"/>
+      <c r="B81" s="32"/>
+      <c r="C81" s="32"/>
       <c r="D81" s="33"/>
       <c r="E81" s="4" t="s">
         <v>1</v>
@@ -6394,10 +6411,10 @@
       <c r="F81" s="4"/>
     </row>
     <row r="82" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="31">
+      <c r="B82" s="32">
         <v>36</v>
       </c>
-      <c r="C82" s="31">
+      <c r="C82" s="32">
         <v>36</v>
       </c>
       <c r="D82" s="33" t="s">
@@ -6409,8 +6426,8 @@
       <c r="F82" s="4"/>
     </row>
     <row r="83" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="31"/>
-      <c r="C83" s="31"/>
+      <c r="B83" s="32"/>
+      <c r="C83" s="32"/>
       <c r="D83" s="33"/>
       <c r="E83" s="4" t="s">
         <v>1</v>
@@ -6418,10 +6435,10 @@
       <c r="F83" s="4"/>
     </row>
     <row r="84" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="31">
+      <c r="B84" s="32">
         <v>37</v>
       </c>
-      <c r="C84" s="31">
+      <c r="C84" s="32">
         <v>37</v>
       </c>
       <c r="D84" s="33" t="s">
@@ -6433,8 +6450,8 @@
       <c r="F84" s="4"/>
     </row>
     <row r="85" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="31"/>
-      <c r="C85" s="31"/>
+      <c r="B85" s="32"/>
+      <c r="C85" s="32"/>
       <c r="D85" s="33"/>
       <c r="E85" s="4" t="s">
         <v>1</v>
@@ -6442,10 +6459,10 @@
       <c r="F85" s="4"/>
     </row>
     <row r="86" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="31">
+      <c r="B86" s="32">
         <v>38</v>
       </c>
-      <c r="C86" s="31">
+      <c r="C86" s="32">
         <v>38</v>
       </c>
       <c r="D86" s="33" t="s">
@@ -6457,8 +6474,8 @@
       <c r="F86" s="4"/>
     </row>
     <row r="87" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="31"/>
-      <c r="C87" s="31"/>
+      <c r="B87" s="32"/>
+      <c r="C87" s="32"/>
       <c r="D87" s="33"/>
       <c r="E87" s="4" t="s">
         <v>1</v>
@@ -6466,10 +6483,10 @@
       <c r="F87" s="4"/>
     </row>
     <row r="88" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="31">
+      <c r="B88" s="32">
         <v>39</v>
       </c>
-      <c r="C88" s="31">
+      <c r="C88" s="32">
         <v>39</v>
       </c>
       <c r="D88" s="33" t="s">
@@ -6481,8 +6498,8 @@
       <c r="F88" s="4"/>
     </row>
     <row r="89" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="31"/>
-      <c r="C89" s="31"/>
+      <c r="B89" s="32"/>
+      <c r="C89" s="32"/>
       <c r="D89" s="33"/>
       <c r="E89" s="4" t="s">
         <v>1</v>
@@ -6490,10 +6507,10 @@
       <c r="F89" s="4"/>
     </row>
     <row r="90" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="31">
+      <c r="B90" s="32">
         <v>40</v>
       </c>
-      <c r="C90" s="31">
+      <c r="C90" s="32">
         <v>40</v>
       </c>
       <c r="D90" s="33" t="s">
@@ -6505,8 +6522,8 @@
       <c r="F90" s="4"/>
     </row>
     <row r="91" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="31"/>
-      <c r="C91" s="31"/>
+      <c r="B91" s="32"/>
+      <c r="C91" s="32"/>
       <c r="D91" s="33"/>
       <c r="E91" s="4" t="s">
         <v>1</v>
@@ -6514,10 +6531,10 @@
       <c r="F91" s="4"/>
     </row>
     <row r="92" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="31">
+      <c r="B92" s="32">
         <v>41</v>
       </c>
-      <c r="C92" s="31">
+      <c r="C92" s="32">
         <v>41</v>
       </c>
       <c r="D92" s="33" t="s">
@@ -6529,8 +6546,8 @@
       <c r="F92" s="4"/>
     </row>
     <row r="93" spans="2:6" ht="46.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="31"/>
-      <c r="C93" s="31"/>
+      <c r="B93" s="32"/>
+      <c r="C93" s="32"/>
       <c r="D93" s="33"/>
       <c r="E93" s="4" t="s">
         <v>1</v>
@@ -6538,10 +6555,10 @@
       <c r="F93" s="4"/>
     </row>
     <row r="94" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="31">
+      <c r="B94" s="32">
         <v>42</v>
       </c>
-      <c r="C94" s="31">
+      <c r="C94" s="32">
         <v>42</v>
       </c>
       <c r="D94" s="33" t="s">
@@ -6553,8 +6570,8 @@
       <c r="F94" s="4"/>
     </row>
     <row r="95" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="31"/>
-      <c r="C95" s="31"/>
+      <c r="B95" s="32"/>
+      <c r="C95" s="32"/>
       <c r="D95" s="33"/>
       <c r="E95" s="4" t="s">
         <v>1</v>
@@ -6562,10 +6579,10 @@
       <c r="F95" s="4"/>
     </row>
     <row r="96" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="31">
+      <c r="B96" s="32">
         <v>43</v>
       </c>
-      <c r="C96" s="31">
+      <c r="C96" s="32">
         <v>43</v>
       </c>
       <c r="D96" s="33" t="s">
@@ -6577,8 +6594,8 @@
       <c r="F96" s="4"/>
     </row>
     <row r="97" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="31"/>
-      <c r="C97" s="31"/>
+      <c r="B97" s="32"/>
+      <c r="C97" s="32"/>
       <c r="D97" s="33"/>
       <c r="E97" s="4" t="s">
         <v>1</v>
@@ -6586,10 +6603,10 @@
       <c r="F97" s="4"/>
     </row>
     <row r="98" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="31">
+      <c r="B98" s="32">
         <v>44</v>
       </c>
-      <c r="C98" s="31">
+      <c r="C98" s="32">
         <v>44</v>
       </c>
       <c r="D98" s="33" t="s">
@@ -6601,8 +6618,8 @@
       <c r="F98" s="4"/>
     </row>
     <row r="99" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="31"/>
-      <c r="C99" s="31"/>
+      <c r="B99" s="32"/>
+      <c r="C99" s="32"/>
       <c r="D99" s="33"/>
       <c r="E99" s="4" t="s">
         <v>1</v>
@@ -6610,10 +6627,10 @@
       <c r="F99" s="4"/>
     </row>
     <row r="100" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="31">
+      <c r="B100" s="32">
         <v>45</v>
       </c>
-      <c r="C100" s="31">
+      <c r="C100" s="32">
         <v>45</v>
       </c>
       <c r="D100" s="33" t="s">
@@ -6625,8 +6642,8 @@
       <c r="F100" s="4"/>
     </row>
     <row r="101" spans="2:6" ht="48.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="31"/>
-      <c r="C101" s="31"/>
+      <c r="B101" s="32"/>
+      <c r="C101" s="32"/>
       <c r="D101" s="33"/>
       <c r="E101" s="4" t="s">
         <v>1</v>
@@ -6634,10 +6651,10 @@
       <c r="F101" s="4"/>
     </row>
     <row r="102" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="31">
+      <c r="B102" s="32">
         <v>46</v>
       </c>
-      <c r="C102" s="31">
+      <c r="C102" s="32">
         <v>46</v>
       </c>
       <c r="D102" s="33" t="s">
@@ -6649,8 +6666,8 @@
       <c r="F102" s="4"/>
     </row>
     <row r="103" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="31"/>
-      <c r="C103" s="31"/>
+      <c r="B103" s="32"/>
+      <c r="C103" s="32"/>
       <c r="D103" s="33"/>
       <c r="E103" s="4" t="s">
         <v>1</v>
@@ -6658,10 +6675,10 @@
       <c r="F103" s="4"/>
     </row>
     <row r="104" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="31">
+      <c r="B104" s="32">
         <v>47</v>
       </c>
-      <c r="C104" s="31">
+      <c r="C104" s="32">
         <v>47</v>
       </c>
       <c r="D104" s="33" t="s">
@@ -6673,8 +6690,8 @@
       <c r="F104" s="4"/>
     </row>
     <row r="105" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="31"/>
-      <c r="C105" s="31"/>
+      <c r="B105" s="32"/>
+      <c r="C105" s="32"/>
       <c r="D105" s="33"/>
       <c r="E105" s="4" t="s">
         <v>1</v>
@@ -6682,10 +6699,10 @@
       <c r="F105" s="4"/>
     </row>
     <row r="106" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="31">
+      <c r="B106" s="32">
         <v>48</v>
       </c>
-      <c r="C106" s="31">
+      <c r="C106" s="32">
         <v>48</v>
       </c>
       <c r="D106" s="33" t="s">
@@ -6697,8 +6714,8 @@
       <c r="F106" s="4"/>
     </row>
     <row r="107" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="31"/>
-      <c r="C107" s="31"/>
+      <c r="B107" s="32"/>
+      <c r="C107" s="32"/>
       <c r="D107" s="33"/>
       <c r="E107" s="4" t="s">
         <v>1</v>
@@ -6706,10 +6723,10 @@
       <c r="F107" s="4"/>
     </row>
     <row r="108" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="31">
+      <c r="B108" s="32">
         <v>49</v>
       </c>
-      <c r="C108" s="31">
+      <c r="C108" s="32">
         <v>49</v>
       </c>
       <c r="D108" s="33" t="s">
@@ -6721,8 +6738,8 @@
       <c r="F108" s="4"/>
     </row>
     <row r="109" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="31"/>
-      <c r="C109" s="31"/>
+      <c r="B109" s="32"/>
+      <c r="C109" s="32"/>
       <c r="D109" s="33"/>
       <c r="E109" s="4" t="s">
         <v>1</v>
@@ -6730,10 +6747,10 @@
       <c r="F109" s="4"/>
     </row>
     <row r="110" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="31">
+      <c r="B110" s="32">
         <v>50</v>
       </c>
-      <c r="C110" s="31">
+      <c r="C110" s="32">
         <v>50</v>
       </c>
       <c r="D110" s="33" t="s">
@@ -6745,8 +6762,8 @@
       <c r="F110" s="4"/>
     </row>
     <row r="111" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="31"/>
-      <c r="C111" s="31"/>
+      <c r="B111" s="32"/>
+      <c r="C111" s="32"/>
       <c r="D111" s="33"/>
       <c r="E111" s="4" t="s">
         <v>1</v>
@@ -6754,10 +6771,10 @@
       <c r="F111" s="4"/>
     </row>
     <row r="112" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="31">
+      <c r="B112" s="32">
         <v>51</v>
       </c>
-      <c r="C112" s="31">
+      <c r="C112" s="32">
         <v>51</v>
       </c>
       <c r="D112" s="33" t="s">
@@ -6769,8 +6786,8 @@
       <c r="F112" s="4"/>
     </row>
     <row r="113" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="31"/>
-      <c r="C113" s="31"/>
+      <c r="B113" s="32"/>
+      <c r="C113" s="32"/>
       <c r="D113" s="33"/>
       <c r="E113" s="4" t="s">
         <v>1</v>
@@ -6778,10 +6795,10 @@
       <c r="F113" s="4"/>
     </row>
     <row r="114" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="31">
+      <c r="B114" s="32">
         <v>52</v>
       </c>
-      <c r="C114" s="31">
+      <c r="C114" s="32">
         <v>52</v>
       </c>
       <c r="D114" s="33" t="s">
@@ -6793,8 +6810,8 @@
       <c r="F114" s="4"/>
     </row>
     <row r="115" spans="2:6" ht="60.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="31"/>
-      <c r="C115" s="31"/>
+      <c r="B115" s="32"/>
+      <c r="C115" s="32"/>
       <c r="D115" s="33"/>
       <c r="E115" s="4" t="s">
         <v>1</v>
@@ -6802,10 +6819,10 @@
       <c r="F115" s="4"/>
     </row>
     <row r="116" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="31">
+      <c r="B116" s="32">
         <v>53</v>
       </c>
-      <c r="C116" s="31">
+      <c r="C116" s="32">
         <v>53</v>
       </c>
       <c r="D116" s="33" t="s">
@@ -6817,8 +6834,8 @@
       <c r="F116" s="4"/>
     </row>
     <row r="117" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="31"/>
-      <c r="C117" s="31"/>
+      <c r="B117" s="32"/>
+      <c r="C117" s="32"/>
       <c r="D117" s="33"/>
       <c r="E117" s="4" t="s">
         <v>1</v>
@@ -6826,10 +6843,10 @@
       <c r="F117" s="4"/>
     </row>
     <row r="118" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="31">
+      <c r="B118" s="32">
         <v>54</v>
       </c>
-      <c r="C118" s="31">
+      <c r="C118" s="32">
         <v>54</v>
       </c>
       <c r="D118" s="33" t="s">
@@ -6841,8 +6858,8 @@
       <c r="F118" s="4"/>
     </row>
     <row r="119" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="31"/>
-      <c r="C119" s="31"/>
+      <c r="B119" s="32"/>
+      <c r="C119" s="32"/>
       <c r="D119" s="33"/>
       <c r="E119" s="4" t="s">
         <v>1</v>
@@ -6850,10 +6867,10 @@
       <c r="F119" s="4"/>
     </row>
     <row r="120" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="31">
+      <c r="B120" s="32">
         <v>55</v>
       </c>
-      <c r="C120" s="31">
+      <c r="C120" s="32">
         <v>55</v>
       </c>
       <c r="D120" s="33" t="s">
@@ -6865,8 +6882,8 @@
       <c r="F120" s="4"/>
     </row>
     <row r="121" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="31"/>
-      <c r="C121" s="31"/>
+      <c r="B121" s="32"/>
+      <c r="C121" s="32"/>
       <c r="D121" s="33"/>
       <c r="E121" s="4" t="s">
         <v>1</v>
@@ -6874,10 +6891,10 @@
       <c r="F121" s="4"/>
     </row>
     <row r="122" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="31">
+      <c r="B122" s="32">
         <v>56</v>
       </c>
-      <c r="C122" s="31">
+      <c r="C122" s="32">
         <v>56</v>
       </c>
       <c r="D122" s="33" t="s">
@@ -6889,8 +6906,8 @@
       <c r="F122" s="4"/>
     </row>
     <row r="123" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="31"/>
-      <c r="C123" s="31"/>
+      <c r="B123" s="32"/>
+      <c r="C123" s="32"/>
       <c r="D123" s="33"/>
       <c r="E123" s="4" t="s">
         <v>1</v>
@@ -6898,10 +6915,10 @@
       <c r="F123" s="4"/>
     </row>
     <row r="124" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="31">
+      <c r="B124" s="32">
         <v>57</v>
       </c>
-      <c r="C124" s="31">
+      <c r="C124" s="32">
         <v>57</v>
       </c>
       <c r="D124" s="33" t="s">
@@ -6913,8 +6930,8 @@
       <c r="F124" s="4"/>
     </row>
     <row r="125" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="31"/>
-      <c r="C125" s="31"/>
+      <c r="B125" s="32"/>
+      <c r="C125" s="32"/>
       <c r="D125" s="33"/>
       <c r="E125" s="4" t="s">
         <v>1</v>
@@ -6922,10 +6939,10 @@
       <c r="F125" s="4"/>
     </row>
     <row r="126" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="31">
+      <c r="B126" s="32">
         <v>58</v>
       </c>
-      <c r="C126" s="31">
+      <c r="C126" s="32">
         <v>58</v>
       </c>
       <c r="D126" s="33" t="s">
@@ -6937,8 +6954,8 @@
       <c r="F126" s="4"/>
     </row>
     <row r="127" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="31"/>
-      <c r="C127" s="31"/>
+      <c r="B127" s="32"/>
+      <c r="C127" s="32"/>
       <c r="D127" s="33"/>
       <c r="E127" s="4" t="s">
         <v>1</v>
@@ -6946,10 +6963,10 @@
       <c r="F127" s="4"/>
     </row>
     <row r="128" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="31">
+      <c r="B128" s="32">
         <v>59</v>
       </c>
-      <c r="C128" s="31">
+      <c r="C128" s="32">
         <v>59</v>
       </c>
       <c r="D128" s="33" t="s">
@@ -6961,8 +6978,8 @@
       <c r="F128" s="4"/>
     </row>
     <row r="129" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="31"/>
-      <c r="C129" s="31"/>
+      <c r="B129" s="32"/>
+      <c r="C129" s="32"/>
       <c r="D129" s="33"/>
       <c r="E129" s="4" t="s">
         <v>1</v>
@@ -6970,10 +6987,10 @@
       <c r="F129" s="4"/>
     </row>
     <row r="130" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="31">
+      <c r="B130" s="32">
         <v>60</v>
       </c>
-      <c r="C130" s="31">
+      <c r="C130" s="32">
         <v>60</v>
       </c>
       <c r="D130" s="33" t="s">
@@ -6985,8 +7002,8 @@
       <c r="F130" s="4"/>
     </row>
     <row r="131" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="31"/>
-      <c r="C131" s="31"/>
+      <c r="B131" s="32"/>
+      <c r="C131" s="32"/>
       <c r="D131" s="33"/>
       <c r="E131" s="4" t="s">
         <v>1</v>
@@ -6994,10 +7011,10 @@
       <c r="F131" s="4"/>
     </row>
     <row r="132" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="31">
+      <c r="B132" s="32">
         <v>61</v>
       </c>
-      <c r="C132" s="31">
+      <c r="C132" s="32">
         <v>61</v>
       </c>
       <c r="D132" s="33" t="s">
@@ -7009,8 +7026,8 @@
       <c r="F132" s="4"/>
     </row>
     <row r="133" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="31"/>
-      <c r="C133" s="31"/>
+      <c r="B133" s="32"/>
+      <c r="C133" s="32"/>
       <c r="D133" s="33"/>
       <c r="E133" s="4" t="s">
         <v>1</v>
@@ -7018,10 +7035,10 @@
       <c r="F133" s="4"/>
     </row>
     <row r="134" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="31">
+      <c r="B134" s="32">
         <v>62</v>
       </c>
-      <c r="C134" s="31">
+      <c r="C134" s="32">
         <v>62</v>
       </c>
       <c r="D134" s="33" t="s">
@@ -7033,8 +7050,8 @@
       <c r="F134" s="4"/>
     </row>
     <row r="135" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="31"/>
-      <c r="C135" s="31"/>
+      <c r="B135" s="32"/>
+      <c r="C135" s="32"/>
       <c r="D135" s="33"/>
       <c r="E135" s="4" t="s">
         <v>1</v>
@@ -7042,8 +7059,8 @@
       <c r="F135" s="4"/>
     </row>
     <row r="136" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C136" s="43"/>
-      <c r="D136" s="44" t="s">
+      <c r="C136" s="46"/>
+      <c r="D136" s="45" t="s">
         <v>45</v>
       </c>
       <c r="E136" s="4" t="s">
@@ -7052,18 +7069,18 @@
       <c r="F136" s="4"/>
     </row>
     <row r="137" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C137" s="43"/>
-      <c r="D137" s="44"/>
+      <c r="C137" s="46"/>
+      <c r="D137" s="45"/>
       <c r="E137" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F137" s="4"/>
     </row>
     <row r="139" spans="2:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C139" s="42" t="s">
+      <c r="C139" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="D139" s="42"/>
+      <c r="D139" s="31"/>
       <c r="E139" s="7" t="s">
         <v>73</v>
       </c>
@@ -7097,121 +7114,63 @@
     </row>
   </sheetData>
   <mergeCells count="196">
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="C64:F64"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="B128:B129"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
     <mergeCell ref="C134:C135"/>
     <mergeCell ref="D134:D135"/>
     <mergeCell ref="C136:C137"/>
@@ -7236,63 +7195,121 @@
     <mergeCell ref="D126:D127"/>
     <mergeCell ref="C116:C117"/>
     <mergeCell ref="D116:D117"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="B134:B135"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="B128:B129"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="C64:F64"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A2:F2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -7302,7 +7319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C1D1676-6511-4AE2-A68C-A44218D69919}">
   <dimension ref="A1:I125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
@@ -10944,10 +10961,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11BF3D0E-E3CB-4C48-845E-23806F8FD67A}">
-  <dimension ref="A1:J125"/>
+  <dimension ref="A1:K125"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:I125"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:K125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -10958,7 +10975,7 @@
     <col min="4" max="10" width="8.796875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>96</v>
       </c>
@@ -10989,8 +11006,11 @@
       <c r="J1" s="22" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K1" s="47" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>100</v>
       </c>
@@ -11022,8 +11042,12 @@
         <f>COUNTIF(D2:I2,3)/6</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" s="25">
+        <f>(COUNTIF(D2:I2,3)-3)/3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>100</v>
       </c>
@@ -11055,8 +11079,12 @@
         <f t="shared" ref="J3:J66" si="0">COUNTIF(D3:I3,3)/6</f>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3" s="25">
+        <f t="shared" ref="K3:K66" si="1">(COUNTIF(D3:I3,3)-3)/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>100</v>
       </c>
@@ -11088,8 +11116,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>100</v>
       </c>
@@ -11121,8 +11153,12 @@
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5" s="25">
+        <f t="shared" si="1"/>
+        <v>-0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>100</v>
       </c>
@@ -11154,8 +11190,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>100</v>
       </c>
@@ -11187,8 +11227,12 @@
         <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7" s="25">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>100</v>
       </c>
@@ -11220,8 +11264,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>100</v>
       </c>
@@ -11253,8 +11301,12 @@
         <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9" s="25">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>100</v>
       </c>
@@ -11286,8 +11338,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>100</v>
       </c>
@@ -11319,8 +11375,12 @@
         <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11" s="25">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>100</v>
       </c>
@@ -11352,8 +11412,12 @@
         <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12" s="25">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>100</v>
       </c>
@@ -11385,8 +11449,12 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>100</v>
       </c>
@@ -11418,8 +11486,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>100</v>
       </c>
@@ -11451,8 +11523,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K15" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>100</v>
       </c>
@@ -11484,8 +11560,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
         <v>100</v>
       </c>
@@ -11517,8 +11597,12 @@
         <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17" s="25">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
         <v>100</v>
       </c>
@@ -11550,8 +11634,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
         <v>100</v>
       </c>
@@ -11583,8 +11671,12 @@
         <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19" s="25">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="s">
         <v>100</v>
       </c>
@@ -11616,8 +11708,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="26" t="s">
         <v>100</v>
       </c>
@@ -11649,8 +11745,12 @@
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K21" s="25">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="26" t="s">
         <v>100</v>
       </c>
@@ -11682,8 +11782,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K22" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="26" t="s">
         <v>100</v>
       </c>
@@ -11715,8 +11819,12 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K23" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="26" t="s">
         <v>100</v>
       </c>
@@ -11748,8 +11856,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K24" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
         <v>100</v>
       </c>
@@ -11781,8 +11893,12 @@
         <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K25" s="25">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
         <v>100</v>
       </c>
@@ -11814,8 +11930,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K26" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="26" t="s">
         <v>100</v>
       </c>
@@ -11847,8 +11967,12 @@
         <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K27" s="25">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
         <v>100</v>
       </c>
@@ -11880,8 +12004,12 @@
         <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K28" s="25">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="26" t="s">
         <v>100</v>
       </c>
@@ -11913,8 +12041,12 @@
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K29" s="25">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="26" t="s">
         <v>100</v>
       </c>
@@ -11946,8 +12078,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K30" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="26" t="s">
         <v>100</v>
       </c>
@@ -11979,8 +12115,12 @@
         <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K31" s="25">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="26" t="s">
         <v>107</v>
       </c>
@@ -12012,8 +12152,12 @@
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K32" s="25">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="26" t="s">
         <v>107</v>
       </c>
@@ -12045,8 +12189,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K33" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="26" t="s">
         <v>107</v>
       </c>
@@ -12078,8 +12226,12 @@
         <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K34" s="25">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="26" t="s">
         <v>107</v>
       </c>
@@ -12111,8 +12263,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K35" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="26" t="s">
         <v>107</v>
       </c>
@@ -12144,8 +12300,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K36" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="26" t="s">
         <v>107</v>
       </c>
@@ -12177,8 +12337,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K37" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="26" t="s">
         <v>107</v>
       </c>
@@ -12210,8 +12374,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K38" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="26" t="s">
         <v>107</v>
       </c>
@@ -12243,8 +12411,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K39" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="26" t="s">
         <v>107</v>
       </c>
@@ -12276,8 +12448,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K40" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="26" t="s">
         <v>107</v>
       </c>
@@ -12309,8 +12485,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K41" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="26" t="s">
         <v>107</v>
       </c>
@@ -12342,8 +12522,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K42" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="26" t="s">
         <v>107</v>
       </c>
@@ -12375,8 +12559,12 @@
         <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K43" s="25">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="26" t="s">
         <v>107</v>
       </c>
@@ -12408,8 +12596,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K44" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="26" t="s">
         <v>107</v>
       </c>
@@ -12441,8 +12633,12 @@
         <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K45" s="25">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="26" t="s">
         <v>107</v>
       </c>
@@ -12474,8 +12670,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K46" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="26" t="s">
         <v>107</v>
       </c>
@@ -12507,8 +12707,12 @@
         <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K47" s="25">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="26" t="s">
         <v>107</v>
       </c>
@@ -12540,8 +12744,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K48" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="26" t="s">
         <v>107</v>
       </c>
@@ -12573,8 +12781,12 @@
         <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K49" s="25">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="26" t="s">
         <v>107</v>
       </c>
@@ -12606,8 +12818,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K50" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="26" t="s">
         <v>107</v>
       </c>
@@ -12639,8 +12855,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K51" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="26" t="s">
         <v>107</v>
       </c>
@@ -12672,8 +12892,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K52" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="26" t="s">
         <v>107</v>
       </c>
@@ -12705,8 +12929,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K53" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="26" t="s">
         <v>107</v>
       </c>
@@ -12738,8 +12966,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K54" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="26" t="s">
         <v>107</v>
       </c>
@@ -12771,8 +13003,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K55" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="26" t="s">
         <v>108</v>
       </c>
@@ -12804,8 +13040,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K56" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="26" t="s">
         <v>108</v>
       </c>
@@ -12837,8 +13077,12 @@
         <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K57" s="25">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="26" t="s">
         <v>108</v>
       </c>
@@ -12870,8 +13114,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K58" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="26" t="s">
         <v>108</v>
       </c>
@@ -12903,8 +13151,12 @@
         <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K59" s="25">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="26" t="s">
         <v>108</v>
       </c>
@@ -12936,8 +13188,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K60" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="26" t="s">
         <v>108</v>
       </c>
@@ -12969,8 +13225,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K61" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="26" t="s">
         <v>108</v>
       </c>
@@ -13002,8 +13262,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K62" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="26" t="s">
         <v>108</v>
       </c>
@@ -13035,8 +13299,12 @@
         <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K63" s="25">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="26" t="s">
         <v>108</v>
       </c>
@@ -13068,8 +13336,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K64" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="26" t="s">
         <v>108</v>
       </c>
@@ -13101,8 +13373,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K65" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="26" t="s">
         <v>108</v>
       </c>
@@ -13134,8 +13410,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K66" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="26" t="s">
         <v>108</v>
       </c>
@@ -13164,11 +13444,15 @@
         <v>3</v>
       </c>
       <c r="J67" s="25">
-        <f t="shared" ref="J67:J125" si="1">COUNTIF(D67:I67,3)/6</f>
+        <f t="shared" ref="J67:J125" si="2">COUNTIF(D67:I67,3)/6</f>
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K67" s="25">
+        <f t="shared" ref="K67:K125" si="3">(COUNTIF(D67:I67,3)-3)/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="26" t="s">
         <v>108</v>
       </c>
@@ -13197,11 +13481,15 @@
         <v>3</v>
       </c>
       <c r="J68" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K68" s="25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="26" t="s">
         <v>108</v>
       </c>
@@ -13230,11 +13518,15 @@
         <v>3</v>
       </c>
       <c r="J69" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K69" s="25">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="26" t="s">
         <v>108</v>
       </c>
@@ -13263,11 +13555,15 @@
         <v>3</v>
       </c>
       <c r="J70" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K70" s="25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="26" t="s">
         <v>108</v>
       </c>
@@ -13296,11 +13592,15 @@
         <v>3</v>
       </c>
       <c r="J71" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K71" s="25">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="26" t="s">
         <v>108</v>
       </c>
@@ -13329,11 +13629,15 @@
         <v>3</v>
       </c>
       <c r="J72" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K72" s="25">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="26" t="s">
         <v>108</v>
       </c>
@@ -13362,11 +13666,15 @@
         <v>3</v>
       </c>
       <c r="J73" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K73" s="25">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="26" t="s">
         <v>108</v>
       </c>
@@ -13395,11 +13703,15 @@
         <v>3</v>
       </c>
       <c r="J74" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K74" s="25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="26" t="s">
         <v>108</v>
       </c>
@@ -13428,11 +13740,15 @@
         <v>3</v>
       </c>
       <c r="J75" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K75" s="25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="26" t="s">
         <v>108</v>
       </c>
@@ -13461,11 +13777,15 @@
         <v>3</v>
       </c>
       <c r="J76" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K76" s="25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="26" t="s">
         <v>108</v>
       </c>
@@ -13494,11 +13814,15 @@
         <v>3</v>
       </c>
       <c r="J77" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K77" s="25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="26" t="s">
         <v>108</v>
       </c>
@@ -13527,11 +13851,15 @@
         <v>3</v>
       </c>
       <c r="J78" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K78" s="25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="26" t="s">
         <v>108</v>
       </c>
@@ -13560,11 +13888,15 @@
         <v>3</v>
       </c>
       <c r="J79" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K79" s="25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="26" t="s">
         <v>108</v>
       </c>
@@ -13593,11 +13925,15 @@
         <v>3</v>
       </c>
       <c r="J80" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K80" s="25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="26" t="s">
         <v>108</v>
       </c>
@@ -13626,11 +13962,15 @@
         <v>3</v>
       </c>
       <c r="J81" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K81" s="25">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="26" t="s">
         <v>108</v>
       </c>
@@ -13659,11 +13999,15 @@
         <v>3</v>
       </c>
       <c r="J82" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K82" s="25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="26" t="s">
         <v>108</v>
       </c>
@@ -13692,11 +14036,15 @@
         <v>3</v>
       </c>
       <c r="J83" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K83" s="25">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="26" t="s">
         <v>108</v>
       </c>
@@ -13725,11 +14073,15 @@
         <v>3</v>
       </c>
       <c r="J84" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K84" s="25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="26" t="s">
         <v>108</v>
       </c>
@@ -13758,11 +14110,15 @@
         <v>3</v>
       </c>
       <c r="J85" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K85" s="25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="26" t="s">
         <v>108</v>
       </c>
@@ -13791,11 +14147,15 @@
         <v>3</v>
       </c>
       <c r="J86" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K86" s="25">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="26" t="s">
         <v>108</v>
       </c>
@@ -13824,11 +14184,15 @@
         <v>3</v>
       </c>
       <c r="J87" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K87" s="25">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="26" t="s">
         <v>108</v>
       </c>
@@ -13857,11 +14221,15 @@
         <v>3</v>
       </c>
       <c r="J88" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K88" s="25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="26" t="s">
         <v>108</v>
       </c>
@@ -13890,11 +14258,15 @@
         <v>3</v>
       </c>
       <c r="J89" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K89" s="25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="26" t="s">
         <v>108</v>
       </c>
@@ -13923,11 +14295,15 @@
         <v>3</v>
       </c>
       <c r="J90" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K90" s="25">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="26" t="s">
         <v>108</v>
       </c>
@@ -13956,11 +14332,15 @@
         <v>3</v>
       </c>
       <c r="J91" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K91" s="25">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="26" t="s">
         <v>108</v>
       </c>
@@ -13989,11 +14369,15 @@
         <v>3</v>
       </c>
       <c r="J92" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K92" s="25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="26" t="s">
         <v>108</v>
       </c>
@@ -14022,11 +14406,15 @@
         <v>3</v>
       </c>
       <c r="J93" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K93" s="25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="26" t="s">
         <v>108</v>
       </c>
@@ -14055,11 +14443,15 @@
         <v>3</v>
       </c>
       <c r="J94" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K94" s="25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="26" t="s">
         <v>108</v>
       </c>
@@ -14088,11 +14480,15 @@
         <v>3</v>
       </c>
       <c r="J95" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K95" s="25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="26" t="s">
         <v>108</v>
       </c>
@@ -14121,11 +14517,15 @@
         <v>3</v>
       </c>
       <c r="J96" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K96" s="25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="26" t="s">
         <v>108</v>
       </c>
@@ -14154,11 +14554,15 @@
         <v>3</v>
       </c>
       <c r="J97" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K97" s="25">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="26" t="s">
         <v>108</v>
       </c>
@@ -14187,11 +14591,15 @@
         <v>3</v>
       </c>
       <c r="J98" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K98" s="25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="26" t="s">
         <v>108</v>
       </c>
@@ -14220,11 +14628,15 @@
         <v>3</v>
       </c>
       <c r="J99" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K99" s="25">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="26" t="s">
         <v>108</v>
       </c>
@@ -14253,11 +14665,15 @@
         <v>3</v>
       </c>
       <c r="J100" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K100" s="25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="26" t="s">
         <v>108</v>
       </c>
@@ -14286,11 +14702,15 @@
         <v>3</v>
       </c>
       <c r="J101" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K101" s="25">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="26" t="s">
         <v>108</v>
       </c>
@@ -14319,11 +14739,15 @@
         <v>3</v>
       </c>
       <c r="J102" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K102" s="25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="26" t="s">
         <v>108</v>
       </c>
@@ -14352,11 +14776,15 @@
         <v>3</v>
       </c>
       <c r="J103" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K103" s="25">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="26" t="s">
         <v>108</v>
       </c>
@@ -14385,11 +14813,15 @@
         <v>3</v>
       </c>
       <c r="J104" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K104" s="25">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="26" t="s">
         <v>108</v>
       </c>
@@ -14418,11 +14850,15 @@
         <v>3</v>
       </c>
       <c r="J105" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K105" s="25">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="26" t="s">
         <v>108</v>
       </c>
@@ -14451,11 +14887,15 @@
         <v>3</v>
       </c>
       <c r="J106" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K106" s="25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="26" t="s">
         <v>108</v>
       </c>
@@ -14484,11 +14924,15 @@
         <v>3</v>
       </c>
       <c r="J107" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K107" s="25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="26" t="s">
         <v>108</v>
       </c>
@@ -14517,11 +14961,15 @@
         <v>3</v>
       </c>
       <c r="J108" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K108" s="25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="26" t="s">
         <v>108</v>
       </c>
@@ -14550,11 +14998,15 @@
         <v>2</v>
       </c>
       <c r="J109" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K109" s="25">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="26" t="s">
         <v>108</v>
       </c>
@@ -14583,11 +15035,15 @@
         <v>3</v>
       </c>
       <c r="J110" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K110" s="25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="26" t="s">
         <v>108</v>
       </c>
@@ -14616,11 +15072,15 @@
         <v>3</v>
       </c>
       <c r="J111" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K111" s="25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="26" t="s">
         <v>108</v>
       </c>
@@ -14649,11 +15109,15 @@
         <v>3</v>
       </c>
       <c r="J112" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K112" s="25">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="26" t="s">
         <v>108</v>
       </c>
@@ -14682,11 +15146,15 @@
         <v>3</v>
       </c>
       <c r="J113" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K113" s="25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="26" t="s">
         <v>108</v>
       </c>
@@ -14715,11 +15183,15 @@
         <v>3</v>
       </c>
       <c r="J114" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K114" s="25">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="26" t="s">
         <v>108</v>
       </c>
@@ -14748,11 +15220,15 @@
         <v>3</v>
       </c>
       <c r="J115" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K115" s="25">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="26" t="s">
         <v>108</v>
       </c>
@@ -14781,11 +15257,15 @@
         <v>3</v>
       </c>
       <c r="J116" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K116" s="25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="26" t="s">
         <v>108</v>
       </c>
@@ -14814,11 +15294,15 @@
         <v>3</v>
       </c>
       <c r="J117" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K117" s="25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="26" t="s">
         <v>108</v>
       </c>
@@ -14847,11 +15331,15 @@
         <v>3</v>
       </c>
       <c r="J118" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K118" s="25">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="26" t="s">
         <v>108</v>
       </c>
@@ -14880,11 +15368,15 @@
         <v>2</v>
       </c>
       <c r="J119" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K119" s="25">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="26" t="s">
         <v>108</v>
       </c>
@@ -14913,11 +15405,15 @@
         <v>3</v>
       </c>
       <c r="J120" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K120" s="25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="26" t="s">
         <v>108</v>
       </c>
@@ -14946,11 +15442,15 @@
         <v>3</v>
       </c>
       <c r="J121" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K121" s="25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="26" t="s">
         <v>108</v>
       </c>
@@ -14979,11 +15479,15 @@
         <v>3</v>
       </c>
       <c r="J122" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K122" s="25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="26" t="s">
         <v>108</v>
       </c>
@@ -15012,11 +15516,15 @@
         <v>3</v>
       </c>
       <c r="J123" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K123" s="25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="26" t="s">
         <v>108</v>
       </c>
@@ -15045,11 +15553,15 @@
         <v>3</v>
       </c>
       <c r="J124" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K124" s="25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="26" t="s">
         <v>108</v>
       </c>
@@ -15078,7 +15590,11 @@
         <v>3</v>
       </c>
       <c r="J125" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K125" s="25">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
